--- a/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5117632647916294</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5755177985330653</v>
+        <v>0.5755177985330654</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8356789248230865</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3275572251409091</v>
+        <v>0.323855499103802</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4062035396064059</v>
+        <v>0.4055054103836003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4493336471015242</v>
+        <v>0.4495009942730967</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5199694650975404</v>
+        <v>0.5179202959835687</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.786460457315489</v>
+        <v>0.7833144138906912</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8267451166545674</v>
+        <v>0.825955307254676</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8538476108033173</v>
+        <v>0.8513707418456756</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8733418569814949</v>
+        <v>0.8791106635133746</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5627551365805169</v>
+        <v>0.5626395192429556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6236848961515457</v>
+        <v>0.6259701764580521</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6623449122897678</v>
+        <v>0.6579684234160695</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7102604407814433</v>
+        <v>0.7109730879386256</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4449502216170515</v>
+        <v>0.4427101414919225</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5286230945865049</v>
+        <v>0.5275474376866328</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.575614389913459</v>
+        <v>0.5721984343409198</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6321370615130738</v>
+        <v>0.6288679747789737</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8777768744122521</v>
+        <v>0.8770357351735449</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9063533037807724</v>
+        <v>0.9070700492462673</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9296527504651731</v>
+        <v>0.930959440510601</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.943773224104818</v>
+        <v>0.9432707585439346</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6471115082518325</v>
+        <v>0.644319441377765</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7053852433904382</v>
+        <v>0.7003299610434026</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7380236460411154</v>
+        <v>0.7374116988193928</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7789762126552142</v>
+        <v>0.7767770914876991</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.8606013332056766</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9111591558526252</v>
+        <v>0.9111591558526254</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6117547985054819</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.336768790754286</v>
+        <v>0.3343391322339248</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3314303610558313</v>
+        <v>0.3327960237635683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4285142366340844</v>
+        <v>0.425992138317178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6782793345447072</v>
+        <v>0.6778260153270393</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8026866448062961</v>
+        <v>0.8033095666170389</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8001202540037728</v>
+        <v>0.8026141367397561</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8278477334705486</v>
+        <v>0.8295397362639721</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8763309713709028</v>
+        <v>0.877673465016759</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5821367583136638</v>
+        <v>0.5803080201066499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5767586066592415</v>
+        <v>0.5776299479548908</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6411549111064968</v>
+        <v>0.6410102649974248</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7932877103198009</v>
+        <v>0.7874429627589599</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4248826780452955</v>
+        <v>0.4240258209787726</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4204662275223044</v>
+        <v>0.4212854047767839</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5182611041122087</v>
+        <v>0.5188720890760095</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7795873008041136</v>
+        <v>0.7780534445702535</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8665421218853687</v>
+        <v>0.8700614742807584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8677704016266753</v>
+        <v>0.8666169628554881</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8902085847305574</v>
+        <v>0.8888695966538062</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9324991513622021</v>
+        <v>0.9348666480897958</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.64302856871314</v>
+        <v>0.6400367292259419</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6433620637479076</v>
+        <v>0.6410333130770505</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7007878808625065</v>
+        <v>0.7012559261242844</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8513808764689862</v>
+        <v>0.8502517659262904</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5907637354028756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7618963746698683</v>
+        <v>0.7618963746698684</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.831901107193095</v>
@@ -957,7 +957,7 @@
         <v>0.8995291014179274</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8975008873509172</v>
+        <v>0.8975008873509169</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5655199785625736</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2350592709302053</v>
+        <v>0.2381845568678977</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3593338548853573</v>
+        <v>0.3597235540757359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.536828065682082</v>
+        <v>0.5385359096711915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7107323057127815</v>
+        <v>0.7108845897746744</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7891684502932238</v>
+        <v>0.7905620902300201</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7956526736457386</v>
+        <v>0.7904102638278473</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8643104755618507</v>
+        <v>0.8660974063814924</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8654163180449588</v>
+        <v>0.8651662562409138</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5282243290575432</v>
+        <v>0.5267274854088034</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5926481491561744</v>
+        <v>0.5903567827577489</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7123040382715499</v>
+        <v>0.7170416141573067</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8084103143405222</v>
+        <v>0.8068692567012298</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.340707153094475</v>
+        <v>0.3398513310988728</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4681405782381712</v>
+        <v>0.4703693372553807</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6483925924303541</v>
+        <v>0.6402137617494021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.807564939633046</v>
+        <v>0.8038529152432555</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8681504424860393</v>
+        <v>0.868443227841871</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.87431498236368</v>
+        <v>0.8737373857545953</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9305050669493335</v>
+        <v>0.9284193367100013</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9213362382851468</v>
+        <v>0.9221177940191043</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6063775942740268</v>
+        <v>0.6026954188261932</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6675876351138903</v>
+        <v>0.665445913473217</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7768888048352139</v>
+        <v>0.781522845094375</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8578022316976319</v>
+        <v>0.8588103402625977</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8283758835296552</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8835012857312454</v>
+        <v>0.8835012857312455</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5677834687838734</v>
@@ -1105,7 +1105,7 @@
         <v>0.6764275959569108</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.771864361268323</v>
+        <v>0.7718643612683229</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2510582606818702</v>
+        <v>0.2591944800552893</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4291252572775692</v>
+        <v>0.4374124408023821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4665476897572165</v>
+        <v>0.462524907918936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.570309303354078</v>
+        <v>0.5783770073834402</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7825061731338744</v>
+        <v>0.7845708544936155</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7934648962603483</v>
+        <v>0.7944725625872749</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7867867513972919</v>
+        <v>0.78802690409307</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8350203465921516</v>
+        <v>0.839307164978207</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5301469099381934</v>
+        <v>0.5333249490132218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6263318553685692</v>
+        <v>0.6283880160093968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.638963870355394</v>
+        <v>0.6346499837029047</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7316811293766999</v>
+        <v>0.7274413922893154</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.353871139504891</v>
+        <v>0.3581518884949403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5377299116906464</v>
+        <v>0.5392318710079316</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5682484741062325</v>
+        <v>0.5720883753094099</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7092817867575404</v>
+        <v>0.7128450709115219</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8579050150854945</v>
+        <v>0.8615396508906602</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8701620896922003</v>
+        <v>0.871007842263292</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8651757238822653</v>
+        <v>0.8683052657310339</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9164519205578386</v>
+        <v>0.9129361787421971</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6028552705821609</v>
+        <v>0.6027491679893977</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7002660011233226</v>
+        <v>0.7000348516486972</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.709171534493337</v>
+        <v>0.7085635685280042</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8110809081503016</v>
+        <v>0.8075276568793497</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5744848656095077</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8816341517838678</v>
+        <v>0.8816341517838676</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.8670718704829458</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2949009522097475</v>
+        <v>0.2899558832689493</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2418569001850856</v>
+        <v>0.2390173259527791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5064360236721669</v>
+        <v>0.5066198832657175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8345111403851122</v>
+        <v>0.8355519235204042</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8144963164908782</v>
+        <v>0.8123900369433489</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7437835298870097</v>
+        <v>0.7439809594851077</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8928245751337187</v>
+        <v>0.8907099293388234</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9012518390064269</v>
+        <v>0.9034340813436296</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.564854610562091</v>
+        <v>0.5710397683474951</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5009761162029588</v>
+        <v>0.5067362034088879</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7158650663690949</v>
+        <v>0.7148906412859157</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8875487836025084</v>
+        <v>0.8896950817793597</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.431077871249673</v>
+        <v>0.4265919621634466</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3775000193620482</v>
+        <v>0.3656828314542815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.636187543457401</v>
+        <v>0.6384846094222663</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9177247985165091</v>
+        <v>0.9171333490505483</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9093687971611091</v>
+        <v>0.9103387592000343</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8488090926985967</v>
+        <v>0.8526638635103025</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9629316673547135</v>
+        <v>0.9610967714571774</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9650709451066533</v>
+        <v>0.9654564790412484</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.667107627329389</v>
+        <v>0.6650842472655839</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6018066723796415</v>
+        <v>0.6038311304749364</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7937370677734027</v>
+        <v>0.7991564623567282</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9345194656226152</v>
+        <v>0.937894879532321</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.8782826703424206</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9179616592626982</v>
+        <v>0.9179616592626979</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5756826730590686</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2204630838863424</v>
+        <v>0.2150422982099837</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3683405300202773</v>
+        <v>0.3678021584389444</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3766542154482421</v>
+        <v>0.3788262023525187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7275099019496404</v>
+        <v>0.7288243508087445</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8312627544916621</v>
+        <v>0.8302019051237146</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8186193217702999</v>
+        <v>0.8219722941054426</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8321101502150372</v>
+        <v>0.8346003224999858</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8908075016977989</v>
+        <v>0.8902743300604705</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5353291162140257</v>
+        <v>0.5310980233843443</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6097207350447817</v>
+        <v>0.6055965121360237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.6196843942389745</v>
+        <v>0.6190219383266653</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.815399993359939</v>
+        <v>0.8190630832520549</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.326570564575444</v>
+        <v>0.3233552629948864</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4978916335540089</v>
+        <v>0.4933288814663343</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5001996343446519</v>
+        <v>0.5039372351227296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8201836589507006</v>
+        <v>0.8137514850294671</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9109284090911991</v>
+        <v>0.9142720666747568</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9025450063610957</v>
+        <v>0.8986748965971613</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9181074969145475</v>
+        <v>0.9175500706693132</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9396283223211361</v>
+        <v>0.9388636711533751</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6177845189495152</v>
+        <v>0.6127173461283609</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.691064009800498</v>
+        <v>0.6908368623687292</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7019045116650509</v>
+        <v>0.7031226737442133</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.8690518648246589</v>
+        <v>0.8711160305874411</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.701719403737181</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.8049666561280008</v>
+        <v>0.804966656128001</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3704929545397014</v>
+        <v>0.3715801457834507</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.417626629159352</v>
+        <v>0.420508432266571</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4848340877879033</v>
+        <v>0.4873096542336319</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6845874603661909</v>
+        <v>0.6832190724426329</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8369226577037731</v>
+        <v>0.8346704940745162</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7909886556047901</v>
+        <v>0.7945157651276207</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8433557508694901</v>
+        <v>0.8421776439320779</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8501449313715169</v>
+        <v>0.849704284473774</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6145949450023986</v>
+        <v>0.6127418633987836</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6170457254250385</v>
+        <v>0.6187409166178589</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6785380134612777</v>
+        <v>0.6764423602896293</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7793419132485575</v>
+        <v>0.7820915624323252</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4520130797436002</v>
+        <v>0.4525477620454342</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5003863462030866</v>
+        <v>0.502946527474913</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5655050952365616</v>
+        <v>0.5652795078456936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7638337354629452</v>
+        <v>0.764235386155398</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8882731644590687</v>
+        <v>0.8900110714868474</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8519374050618257</v>
+        <v>0.8560841717712149</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8976107226290281</v>
+        <v>0.8954958482212124</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.902652285881657</v>
+        <v>0.9019802989521994</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6696552120219441</v>
+        <v>0.6679117146099227</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6720623567033067</v>
+        <v>0.6734278910563651</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7265865282288739</v>
+        <v>0.7319839820747601</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.826722508027863</v>
+        <v>0.8268816237348895</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2779790663019945</v>
+        <v>0.2800845771582814</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4333461573376186</v>
+        <v>0.4318793165476775</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5435553456333242</v>
+        <v>0.5448752504055262</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3964703456746688</v>
+        <v>0.3947537817140035</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7893321123717897</v>
+        <v>0.7883161972921455</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8019265107402822</v>
+        <v>0.7993519194624051</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8448478349635045</v>
+        <v>0.845781270865117</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9041945000867111</v>
+        <v>0.9043895197078941</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5466313406865904</v>
+        <v>0.5456367383572581</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.6286431025589825</v>
+        <v>0.6282662688635912</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.71206473554728</v>
+        <v>0.7101239974032829</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.6609571840146655</v>
+        <v>0.6594041608139438</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3447669049161849</v>
+        <v>0.35048796686458</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5076574005331139</v>
+        <v>0.5065985201889799</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6176650541792903</v>
+        <v>0.6162193566687946</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4702083674060767</v>
+        <v>0.4709840055142232</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8415482996800641</v>
+        <v>0.8445314853817125</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8554758657341927</v>
+        <v>0.8537619362943293</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8954117782692993</v>
+        <v>0.8939793019095578</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9434588241664829</v>
+        <v>0.9428147316170216</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5968956870273101</v>
+        <v>0.5969166133829175</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6776776356897445</v>
+        <v>0.6762670342809687</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7557239591030723</v>
+        <v>0.7531737813969139</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7100232575966599</v>
+        <v>0.7056868244957746</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.7064143311540036</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3250490311813861</v>
+        <v>0.3245525141920467</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4193373973404099</v>
+        <v>0.4199376276163997</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5141483430695787</v>
+        <v>0.5132774786570602</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8269131291890429</v>
+        <v>0.8266029757937727</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8222885173460593</v>
+        <v>0.8226079658771344</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8622617069399151</v>
+        <v>0.8617674285340627</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5838616303508082</v>
+        <v>0.5826453771838973</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.6274246425940401</v>
+        <v>0.6278387167111762</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.6947350594456351</v>
+        <v>0.6948378359995179</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3594382224772504</v>
+        <v>0.3590235457654158</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4541266466748808</v>
+        <v>0.453723631169354</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5493842049838429</v>
+        <v>0.5476634777748219</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8534838897211169</v>
+        <v>0.8526701710792921</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8474577761881998</v>
+        <v>0.8487663793578549</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8847822854321177</v>
+        <v>0.8852395735966979</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6078917853595526</v>
+        <v>0.6070590199623638</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.6521186203114689</v>
+        <v>0.6513354011408915</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.7164358509539672</v>
+        <v>0.7174201217578549</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>89426</v>
+        <v>88416</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>119724</v>
+        <v>119518</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>131997</v>
+        <v>132046</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>165790</v>
+        <v>165136</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>204341</v>
+        <v>203524</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>237478</v>
+        <v>237252</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>246508</v>
+        <v>245793</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>276029</v>
+        <v>277853</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>299855</v>
+        <v>299793</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>362974</v>
+        <v>364304</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>385792</v>
+        <v>383243</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>450949</v>
+        <v>451401</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>121476</v>
+        <v>120864</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>155805</v>
+        <v>155488</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>169093</v>
+        <v>168090</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>201554</v>
+        <v>200511</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>228067</v>
+        <v>227875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>260345</v>
+        <v>260551</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>268394</v>
+        <v>268771</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>298290</v>
+        <v>298131</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>344803</v>
+        <v>343315</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>410522</v>
+        <v>407580</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>429872</v>
+        <v>429516</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>494577</v>
+        <v>493180</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>166052</v>
+        <v>164854</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>167196</v>
+        <v>167885</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>213768</v>
+        <v>212510</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>359927</v>
+        <v>359686</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>404513</v>
+        <v>404827</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>419075</v>
+        <v>420381</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>432261</v>
+        <v>433144</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>478910</v>
+        <v>479643</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>580404</v>
+        <v>578581</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>593042</v>
+        <v>593938</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>654625</v>
+        <v>654477</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>854483</v>
+        <v>848187</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>209499</v>
+        <v>209077</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>212112</v>
+        <v>212525</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>258539</v>
+        <v>258844</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>413686</v>
+        <v>412872</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>436693</v>
+        <v>438467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>454508</v>
+        <v>453904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>464822</v>
+        <v>464123</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>509605</v>
+        <v>510899</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>641115</v>
+        <v>638132</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>661526</v>
+        <v>659132</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>715511</v>
+        <v>715989</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>917057</v>
+        <v>915841</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>74948</v>
+        <v>75944</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>116441</v>
+        <v>116567</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>170620</v>
+        <v>171162</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>224154</v>
+        <v>224202</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>264697</v>
+        <v>265164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>271333</v>
+        <v>269546</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>290675</v>
+        <v>291276</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>307340</v>
+        <v>307252</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>345595</v>
+        <v>344616</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>394150</v>
+        <v>392626</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>465945</v>
+        <v>469044</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>542055</v>
+        <v>541022</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>108633</v>
+        <v>108360</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>151699</v>
+        <v>152421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>206078</v>
+        <v>203478</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>254693</v>
+        <v>253522</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>291188</v>
+        <v>291286</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>298159</v>
+        <v>297962</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>312937</v>
+        <v>312236</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>327200</v>
+        <v>327477</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>396727</v>
+        <v>394318</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>443990</v>
+        <v>442565</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>508192</v>
+        <v>511224</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>575174</v>
+        <v>575850</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>90047</v>
+        <v>92966</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>160485</v>
+        <v>163584</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>171718</v>
+        <v>170237</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>212808</v>
+        <v>215818</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>289764</v>
+        <v>290529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>308619</v>
+        <v>309011</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>304709</v>
+        <v>305189</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>352346</v>
+        <v>354155</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>386463</v>
+        <v>388780</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>477849</v>
+        <v>479418</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>482637</v>
+        <v>479378</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>581765</v>
+        <v>578394</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>126923</v>
+        <v>128459</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>201101</v>
+        <v>201663</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>209150</v>
+        <v>210563</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>264665</v>
+        <v>265995</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>317685</v>
+        <v>319031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>338450</v>
+        <v>338779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>335068</v>
+        <v>336280</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>386707</v>
+        <v>385223</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>439466</v>
+        <v>439388</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>534256</v>
+        <v>534080</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>535668</v>
+        <v>535209</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>644896</v>
+        <v>642071</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>59956</v>
+        <v>58950</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>51423</v>
+        <v>50819</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>106970</v>
+        <v>107009</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>171226</v>
+        <v>171439</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>169145</v>
+        <v>168707</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>163328</v>
+        <v>163372</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>194308</v>
+        <v>193848</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>206313</v>
+        <v>206812</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>232142</v>
+        <v>234684</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>216526</v>
+        <v>219016</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>307002</v>
+        <v>306584</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>385284</v>
+        <v>386216</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>87642</v>
+        <v>86730</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>80263</v>
+        <v>77751</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>134376</v>
+        <v>134861</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>188300</v>
+        <v>188178</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>188847</v>
+        <v>189048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>186391</v>
+        <v>187237</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>209566</v>
+        <v>209166</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>220922</v>
+        <v>221010</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>274165</v>
+        <v>273334</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>260106</v>
+        <v>260981</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>340397</v>
+        <v>342721</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>405674</v>
+        <v>407139</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>59704</v>
+        <v>58236</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>100918</v>
+        <v>100771</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>98491</v>
+        <v>99059</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>196942</v>
+        <v>197298</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>231211</v>
+        <v>230916</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>229239</v>
+        <v>230178</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>226396</v>
+        <v>227073</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>234950</v>
+        <v>234810</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>293872</v>
+        <v>291549</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>337793</v>
+        <v>335508</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>330641</v>
+        <v>330287</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>435796</v>
+        <v>437754</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>88439</v>
+        <v>87568</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>136413</v>
+        <v>135163</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>130797</v>
+        <v>131774</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>222029</v>
+        <v>220288</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>253369</v>
+        <v>254299</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>252741</v>
+        <v>251657</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>249793</v>
+        <v>249642</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>247827</v>
+        <v>247625</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>339136</v>
+        <v>336354</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>382858</v>
+        <v>382732</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>374510</v>
+        <v>375160</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>464471</v>
+        <v>465574</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>227863</v>
+        <v>228532</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>276798</v>
+        <v>278708</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>317813</v>
+        <v>319435</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>492689</v>
+        <v>491704</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>532145</v>
+        <v>530713</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>548830</v>
+        <v>551277</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>581293</v>
+        <v>580481</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>656360</v>
+        <v>656020</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>768773</v>
+        <v>766456</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>837110</v>
+        <v>839409</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>912478</v>
+        <v>909659</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1162579</v>
+        <v>1166680</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>278000</v>
+        <v>278329</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>331650</v>
+        <v>333347</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>370693</v>
+        <v>370545</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>549721</v>
+        <v>550010</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>564795</v>
+        <v>565900</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>591119</v>
+        <v>593997</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>618689</v>
+        <v>617231</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>696899</v>
+        <v>696380</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>837646</v>
+        <v>835465</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>911747</v>
+        <v>913600</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>977092</v>
+        <v>984350</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1233258</v>
+        <v>1233496</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>206514</v>
+        <v>208078</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>337619</v>
+        <v>336476</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>423203</v>
+        <v>424231</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>316412</v>
+        <v>315042</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>618450</v>
+        <v>617654</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>659065</v>
+        <v>656949</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>697985</v>
+        <v>698757</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>751685</v>
+        <v>751847</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>834391</v>
+        <v>832873</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1006426</v>
+        <v>1005823</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1142686</v>
+        <v>1139571</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1076966</v>
+        <v>1074435</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>256132</v>
+        <v>260382</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>395515</v>
+        <v>394690</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>480904</v>
+        <v>479778</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>375260</v>
+        <v>375879</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>659362</v>
+        <v>661700</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>703075</v>
+        <v>701666</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>739760</v>
+        <v>738576</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>784327</v>
+        <v>783791</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>911116</v>
+        <v>911148</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1084928</v>
+        <v>1082670</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1212748</v>
+        <v>1208656</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1156914</v>
+        <v>1149848</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1064750</v>
+        <v>1063124</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1436532</v>
+        <v>1438588</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1740551</v>
+        <v>1737603</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2790538</v>
+        <v>2789492</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2924311</v>
+        <v>2925447</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>3052044</v>
+        <v>3050295</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3882859</v>
+        <v>3874771</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>4380696</v>
+        <v>4383587</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>4810964</v>
+        <v>4811676</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1177398</v>
+        <v>1176039</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1555710</v>
+        <v>1554330</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1859835</v>
+        <v>1854010</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2880205</v>
+        <v>2877459</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3013821</v>
+        <v>3018475</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3131758</v>
+        <v>3133376</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4042667</v>
+        <v>4037129</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>4553110</v>
+        <v>4547641</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>4961239</v>
+        <v>4968055</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
     </row>
     <row r="40">
